--- a/data/excel/TravellerProfiling1.xlsx
+++ b/data/excel/TravellerProfiling1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B054CF-D4F5-4DEF-A503-F1D6659DA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -60,15 +61,9 @@
     <t>mo</t>
   </si>
   <si>
-    <t>//staging117/backoffice/</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
-    <t>saurav_at</t>
-  </si>
-  <si>
     <t>Shree Travel</t>
   </si>
   <si>
@@ -228,9 +223,6 @@
     <t>6-Apr-2033</t>
   </si>
   <si>
-    <t>Laxmi@1234</t>
-  </si>
-  <si>
     <t>Mr Abhi Sharma</t>
   </si>
   <si>
@@ -250,12 +242,24 @@
   </si>
   <si>
     <t>eqweqe126</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/backoffice/</t>
+  </si>
+  <si>
+    <t>Saurav_at</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Password@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,26 +359,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +679,10 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -692,7 +703,7 @@
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="80.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -705,7 +716,7 @@
     <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -738,110 +749,110 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AK1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AN1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AQ1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -858,157 +869,157 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>75</v>
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="W2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="11">
+        <v>34</v>
+      </c>
+      <c r="X2" s="8">
         <v>45858802</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="4">
         <v>2</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>44</v>
+      <c r="AA2" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="AB2" s="4">
         <v>5797852</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AG2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AN2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="18" t="s">
-        <v>36</v>
+      <c r="AQ2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Administrator,Travel Arranger,Travel Co-ordinator,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AL2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AL2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Book For Family,Personal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"Laxmi@1234"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"saurav_at,Laxmi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"at"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Parent,Sibling,Child,Spouse"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{CB5AAB35-3069-4A82-8158-1194DE01C6FB}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4E67792A-B72E-4C38-8A0F-D58E16296595}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{A5A22EBF-7D5B-4C95-8C35-218A656FE810}">
+      <formula1>"at,QL"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
-    <hyperlink ref="S2" r:id="rId3"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{D04F8ED0-9944-4CF8-9E87-18CA11758614}"/>
+    <hyperlink ref="H2" r:id="rId3" display="Password@123" xr:uid="{02AF4BA4-D98B-474C-AB00-78DD8CEE1169}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/TravellerProfiling1.xlsx
+++ b/data/excel/TravellerProfiling1.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B054CF-D4F5-4DEF-A503-F1D6659DA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EF7D1-B51F-447E-A20F-921BBC569DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="79">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -238,9 +239,6 @@
     <t>SanjaySharma</t>
   </si>
   <si>
-    <t>sanjay.sharma@quadlabs.com</t>
-  </si>
-  <si>
     <t>eqweqe126</t>
   </si>
   <si>
@@ -253,7 +251,13 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Password@1234</t>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Testing Branch</t>
+  </si>
+  <si>
+    <t>sanjay2.sharma@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -667,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +686,7 @@
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -869,19 +873,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -911,10 +915,10 @@
         <v>71</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>32</v>
@@ -953,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="13" t="s">
         <v>34</v>
@@ -986,33 +990,1239 @@
         <v>64</v>
       </c>
       <c r="AR2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Administrator,Travel Arranger,Travel Co-ordinator,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AL2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11 AL2:AL11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Book For Family,Personal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN11" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Parent,Sibling,Child,Spouse"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{CB5AAB35-3069-4A82-8158-1194DE01C6FB}">
-      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{CB5AAB35-3069-4A82-8158-1194DE01C6FB}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4E67792A-B72E-4C38-8A0F-D58E16296595}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{4E67792A-B72E-4C38-8A0F-D58E16296595}">
       <formula1>"Saurav_at,tarun"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{A5A22EBF-7D5B-4C95-8C35-218A656FE810}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{A5A22EBF-7D5B-4C95-8C35-218A656FE810}">
       <formula1>"at,QL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1020,6 +2230,393 @@
     <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G2" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{D04F8ED0-9944-4CF8-9E87-18CA11758614}"/>
     <hyperlink ref="H2" r:id="rId3" display="Password@123" xr:uid="{02AF4BA4-D98B-474C-AB00-78DD8CEE1169}"/>
+    <hyperlink ref="G3" r:id="rId4" display="shubham.natkar@quadlabs.com" xr:uid="{2CD70AE4-6F5D-4B44-8F95-C59DEE3B54F0}"/>
+    <hyperlink ref="H3" r:id="rId5" display="Password@123" xr:uid="{0985D2E1-6B43-4D83-BE9D-2C9BA87ED104}"/>
+    <hyperlink ref="G4" r:id="rId6" display="shubham.natkar@quadlabs.com" xr:uid="{BB52AE4B-17F5-497E-8C93-CA303D32FA4F}"/>
+    <hyperlink ref="H4" r:id="rId7" display="Password@123" xr:uid="{B1DE692E-53CA-41A3-956C-9B07A6EBD2FA}"/>
+    <hyperlink ref="G5" r:id="rId8" display="shubham.natkar@quadlabs.com" xr:uid="{4EE4EA5F-2699-4512-B6DF-132E7D13607C}"/>
+    <hyperlink ref="H5" r:id="rId9" display="Password@123" xr:uid="{02124FE1-60EC-4BBF-AD98-9140C459ABD1}"/>
+    <hyperlink ref="G6" r:id="rId10" display="shubham.natkar@quadlabs.com" xr:uid="{70279030-0866-44E3-9447-DF7B70C8174E}"/>
+    <hyperlink ref="H6" r:id="rId11" display="Password@123" xr:uid="{8DB901C4-041C-4952-946D-FBDC71E2F0DF}"/>
+    <hyperlink ref="G7" r:id="rId12" display="shubham.natkar@quadlabs.com" xr:uid="{5BA8217F-9EB3-4893-9477-6C1284AA4324}"/>
+    <hyperlink ref="H7" r:id="rId13" display="Password@123" xr:uid="{A8796E04-01E2-4166-B789-D766E5A5CC29}"/>
+    <hyperlink ref="G8" r:id="rId14" display="shubham.natkar@quadlabs.com" xr:uid="{A5F93750-CC32-413B-89F1-A57856FB0AEB}"/>
+    <hyperlink ref="H8" r:id="rId15" display="Password@123" xr:uid="{0EC250D0-7DCC-44E8-8116-E4B1DC29FC85}"/>
+    <hyperlink ref="G9" r:id="rId16" display="shubham.natkar@quadlabs.com" xr:uid="{E946D9DE-9EBF-4F9A-903E-2F97BE5F4D7C}"/>
+    <hyperlink ref="H9" r:id="rId17" display="Password@123" xr:uid="{F224FF25-4C00-4BDD-9121-78EE4BEBCE42}"/>
+    <hyperlink ref="G10" r:id="rId18" display="shubham.natkar@quadlabs.com" xr:uid="{3129D331-EC95-47F2-B413-A31D8081FE68}"/>
+    <hyperlink ref="H10" r:id="rId19" display="Password@123" xr:uid="{4703FD0B-34CE-4906-A256-14768175D047}"/>
+    <hyperlink ref="G11" r:id="rId20" display="shubham.natkar@quadlabs.com" xr:uid="{90621546-0BE9-4476-A622-359F32E5AF5F}"/>
+    <hyperlink ref="H11" r:id="rId21" display="Password@123" xr:uid="{DFAAC599-69FA-490F-8C2A-365FF548E19C}"/>
+    <hyperlink ref="S3" r:id="rId22" xr:uid="{8DBD20F2-75CE-4E0F-B88A-9E2228415654}"/>
+    <hyperlink ref="S4" r:id="rId23" xr:uid="{6A82FE5B-2F7C-4A07-89B2-7E2DC434253C}"/>
+    <hyperlink ref="S5" r:id="rId24" xr:uid="{A3A222E4-C1D0-4BE9-8831-142D85B1B346}"/>
+    <hyperlink ref="S6" r:id="rId25" xr:uid="{5BFAD23B-821A-46CA-9125-5D2F8D8EE33C}"/>
+    <hyperlink ref="S7" r:id="rId26" xr:uid="{1E27D564-DECA-4FA1-85EF-3FEB03D8F0EF}"/>
+    <hyperlink ref="S8" r:id="rId27" xr:uid="{F0296427-8C06-4985-A617-7EB77F702110}"/>
+    <hyperlink ref="S9" r:id="rId28" xr:uid="{431237C1-377D-44CD-9A90-85A5B3D9D070}"/>
+    <hyperlink ref="S10" r:id="rId29" xr:uid="{03054C74-A610-4F3A-B0C7-90E22178924E}"/>
+    <hyperlink ref="S11" r:id="rId30" xr:uid="{6329005E-9188-47BB-97A8-F886A210C25B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF364F4-C8C7-448F-99A7-1452E1EFC33B}">
+  <dimension ref="A1:AR2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="8">
+        <v>45858802</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>5797852</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{1FDD371A-D6D3-4C64-B947-9C71EBB5F712}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{BE900C70-FCE8-465F-81B7-6092F812ADA3}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{42860042-3DA4-48E3-A9A0-01DEDDE601E9}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2" xr:uid="{5CF03AD8-5D1F-4716-92DD-36706E98933D}">
+      <formula1>"Parent,Sibling,Child,Spouse"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{16F4E270-2662-4978-876F-17B728FF625A}">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{A9A0539E-EE86-495E-878B-51ECC6A4B170}">
+      <formula1>"Book For Family,Personal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AL2" xr:uid="{4099DAB6-56FB-430F-BCF4-D923352BEAC3}">
+      <formula1>"Male,Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{2BE07D78-D5F9-47A5-A455-1210035BC342}">
+      <formula1>"Administrator,Travel Arranger,Travel Co-ordinator,Employee"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{66EB0F50-5288-4439-B32E-484854D5BC07}"/>
+    <hyperlink ref="G2" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{5037F526-75F1-48D5-8978-45431332D93F}"/>
+    <hyperlink ref="H2" r:id="rId3" display="Password@123" xr:uid="{63B6D458-C405-4625-9B72-D91214709909}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
